--- a/public/mno-employment-statistics-updates.xlsx
+++ b/public/mno-employment-statistics-updates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaput\Documents\ZICTA\Documents\mno stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emman\Documents\Zicta\zicta-website-client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D429B852-7B3C-4C42-B57E-B7778C373331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959CAC06-FD10-4CFC-AF3A-358C42096FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employment" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
   <si>
     <t>Period</t>
   </si>
@@ -492,24 +492,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:I41"/>
+  <dimension ref="B1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="6" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
@@ -532,7 +532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="10">
         <v>2011</v>
       </c>
@@ -549,7 +549,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="10">
         <v>2012</v>
       </c>
@@ -566,7 +566,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="10">
         <v>2013</v>
       </c>
@@ -583,7 +583,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="10">
         <v>2014</v>
       </c>
@@ -600,7 +600,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="10">
         <v>2015</v>
       </c>
@@ -617,7 +617,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>2016</v>
       </c>
@@ -634,7 +634,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>2016</v>
       </c>
@@ -651,7 +651,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>2016</v>
       </c>
@@ -668,7 +668,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>2016</v>
       </c>
@@ -685,7 +685,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>2016</v>
       </c>
@@ -702,7 +702,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>2017</v>
       </c>
@@ -719,7 +719,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>2017</v>
       </c>
@@ -736,7 +736,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>2017</v>
       </c>
@@ -753,7 +753,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>2017</v>
       </c>
@@ -770,7 +770,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="10">
         <v>2017</v>
       </c>
@@ -787,7 +787,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>2018</v>
       </c>
@@ -804,7 +804,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>2018</v>
       </c>
@@ -821,7 +821,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>2018</v>
       </c>
@@ -838,7 +838,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>2018</v>
       </c>
@@ -855,7 +855,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
         <v>2018</v>
       </c>
@@ -872,7 +872,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>2019</v>
       </c>
@@ -889,7 +889,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>2019</v>
       </c>
@@ -906,7 +906,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>2019</v>
       </c>
@@ -923,7 +923,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>2019</v>
       </c>
@@ -940,7 +940,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="10">
         <v>2019</v>
       </c>
@@ -957,7 +957,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>2020</v>
       </c>
@@ -974,7 +974,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>2020</v>
       </c>
@@ -991,7 +991,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>2020</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>2020</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="10">
         <v>2020</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>2021</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>2021</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>2021</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>2021</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="10">
         <v>2021</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>2022</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>2022</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>2022</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>2022</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="10">
         <v>2022</v>
       </c>
@@ -1210,6 +1210,91 @@
       </c>
       <c r="F41" s="13">
         <v>1129</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="7">
+        <v>13</v>
+      </c>
+      <c r="E42" s="7">
+        <v>337</v>
+      </c>
+      <c r="F42" s="7">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="8">
+        <v>13</v>
+      </c>
+      <c r="E43" s="8">
+        <v>354</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="8">
+        <v>13</v>
+      </c>
+      <c r="E44" s="8">
+        <v>353</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="8">
+        <v>10</v>
+      </c>
+      <c r="E45" s="8">
+        <v>368</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="13">
+        <v>10</v>
+      </c>
+      <c r="E46" s="13">
+        <v>368</v>
+      </c>
+      <c r="F46" s="13">
+        <v>1063</v>
       </c>
     </row>
   </sheetData>
